--- a/TestData/JTPS-DEVQA/LiquidateTypes.xlsx
+++ b/TestData/JTPS-DEVQA/LiquidateTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -238,9 +238,6 @@
     <t>txt_Value</t>
   </si>
   <si>
-    <t>Automati</t>
-  </si>
-  <si>
     <t>5.3.0.4</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -307,9 +298,6 @@
     <t>DeleteRow</t>
   </si>
   <si>
-    <t>allrows,value^Automati</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -334,12 +322,6 @@
     <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
   </si>
   <si>
-    <t>elm_Confirmationdialog</t>
-  </si>
-  <si>
-    <t>btn_yes</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -362,6 +344,24 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No code for lst or list verification </t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Scrolbar Not validate</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +448,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,7 +551,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -620,14 +626,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X85"/>
+  <dimension ref="A1:X254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,22 +1027,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>9</v>
@@ -1031,7 +1062,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1061,15 +1092,15 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
-      <c r="X2" s="19"/>
+      <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1079,7 +1110,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1099,17 +1130,27 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1137,13 +1178,21 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1167,17 +1216,26 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1205,13 +1263,21 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="11"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1239,15 +1305,22 @@
         <v>64</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1273,10 +1346,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1284,10 +1357,20 @@
       <c r="P8" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
@@ -1303,18 +1386,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1322,6 +1405,14 @@
       <c r="P9" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1349,15 +1440,22 @@
         <v>64</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1383,17 +1481,25 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>44</v>
       </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1421,13 +1527,21 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="35"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -1455,10 +1569,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1466,6 +1580,14 @@
       <c r="P13" s="16" t="s">
         <v>40</v>
       </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="35"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -1492,17 +1614,25 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>50</v>
       </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="35"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -1530,17 +1660,25 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P15" s="24" t="s">
         <v>53</v>
       </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="36"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -1568,19 +1706,27 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="36"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="22"/>
@@ -1606,19 +1752,29 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1644,19 +1800,27 @@
         <v>58</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P18" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="36"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -1682,19 +1846,27 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -1720,19 +1892,27 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="5" t="s">
@@ -1756,19 +1936,27 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -1791,22 +1979,30 @@
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="25" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="36"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -1832,15 +2028,23 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="36"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -1866,19 +2070,27 @@
         <v>63</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="36"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -1904,19 +2116,27 @@
         <v>64</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O25" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P25" s="32" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="36"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="22"/>
@@ -1942,19 +2162,27 @@
         <v>67</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O26" s="30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P26" s="32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:24" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -1976,15 +2204,25 @@
       <c r="K27" s="11"/>
       <c r="L27" s="25"/>
       <c r="M27" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O27" s="30"/>
       <c r="P27" s="32"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="22"/>
@@ -2010,19 +2248,27 @@
         <v>64</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="36"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="22"/>
@@ -2048,19 +2294,27 @@
         <v>72</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="36"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="22"/>
@@ -2083,22 +2337,30 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="36"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="22"/>
@@ -2107,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>19</v>
@@ -2124,19 +2386,27 @@
         <v>72</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="36"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="22"/>
@@ -2145,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>19</v>
@@ -2162,19 +2432,27 @@
         <v>64</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="36"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
@@ -2183,7 +2461,7 @@
         <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>19</v>
@@ -2197,22 +2475,28 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="25" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="22"/>
@@ -2230,27 +2514,35 @@
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="36"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="22"/>
@@ -2259,7 +2551,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>19</v>
@@ -2268,23 +2560,35 @@
         <v>21</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="35">
-        <v>3</v>
+        <v>28</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="34"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="36"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2596,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="5" t="s">
@@ -2312,23 +2616,31 @@
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="25" t="s">
-        <v>64</v>
+      <c r="L36" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P36" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="36"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
@@ -2336,7 +2648,7 @@
         <v>19</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>19</v>
@@ -2347,16 +2659,16 @@
       <c r="I37" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="1" t="s">
-        <v>101</v>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>37</v>
@@ -2364,8 +2676,16 @@
       <c r="P37" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="36"/>
+    </row>
+    <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="22"/>
@@ -2374,7 +2694,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
@@ -2383,27 +2703,35 @@
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="21" t="s">
-        <v>47</v>
+      <c r="L38" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="36"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="4"/>
@@ -2421,27 +2749,35 @@
         <v>21</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
-        <v>105</v>
+      <c r="L39" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="22"/>
@@ -2463,23 +2799,31 @@
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="25" t="s">
-        <v>64</v>
+      <c r="L40" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="22"/>
@@ -2488,7 +2832,7 @@
         <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>19</v>
@@ -2501,23 +2845,31 @@
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
-      <c r="L41" s="10" t="s">
-        <v>74</v>
+      <c r="L41" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="22"/>
@@ -2526,7 +2878,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>19</v>
@@ -2540,22 +2892,30 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="22"/>
@@ -2564,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>19</v>
@@ -2578,22 +2938,30 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="25" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="22"/>
@@ -2611,27 +2979,35 @@
         <v>21</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="25" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="22"/>
@@ -2640,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>19</v>
@@ -2649,27 +3025,35 @@
         <v>21</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="25" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="22"/>
@@ -2689,25 +3073,33 @@
       <c r="I46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="25" t="s">
-        <v>64</v>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="22"/>
@@ -2716,7 +3108,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>19</v>
@@ -2729,23 +3121,31 @@
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
-      <c r="L47" s="10" t="s">
-        <v>64</v>
+      <c r="L47" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="22"/>
@@ -2754,7 +3154,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>19</v>
@@ -2765,25 +3165,33 @@
       <c r="I48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="1" t="s">
-        <v>101</v>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="22"/>
@@ -2792,7 +3200,7 @@
         <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>19</v>
@@ -2805,23 +3213,31 @@
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
-      <c r="L49" s="21" t="s">
-        <v>47</v>
+      <c r="L49" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="22"/>
@@ -2830,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>19</v>
@@ -2847,19 +3263,27 @@
         <v>64</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="22"/>
@@ -2868,7 +3292,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>19</v>
@@ -2877,27 +3301,35 @@
         <v>21</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="22"/>
@@ -2915,27 +3347,35 @@
         <v>21</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
-      <c r="L52" s="25" t="s">
-        <v>64</v>
+      <c r="L52" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="22"/>
@@ -2944,7 +3384,7 @@
         <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>19</v>
@@ -2953,27 +3393,35 @@
         <v>21</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-      <c r="L53" s="10" t="s">
-        <v>51</v>
+      <c r="L53" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="22"/>
@@ -2982,7 +3430,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>19</v>
@@ -2991,27 +3439,35 @@
         <v>21</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="10" t="s">
-        <v>51</v>
+      <c r="L54" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="22"/>
@@ -3033,23 +3489,31 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="25" t="s">
-        <v>64</v>
+      <c r="L55" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P55" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="22"/>
@@ -3058,7 +3522,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>19</v>
@@ -3072,22 +3536,30 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4"/>
@@ -3096,7 +3568,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>19</v>
@@ -3109,23 +3581,31 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="1" t="s">
-        <v>101</v>
+      <c r="L57" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="11"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="22"/>
@@ -3134,7 +3614,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>19</v>
@@ -3143,27 +3623,33 @@
         <v>21</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="21" t="s">
-        <v>47</v>
+      <c r="L58" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O58" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="22"/>
@@ -3172,7 +3658,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>19</v>
@@ -3185,23 +3671,31 @@
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>91</v>
+      <c r="L59" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P59" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="22"/>
@@ -3223,23 +3717,31 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="25" t="s">
-        <v>64</v>
+      <c r="L60" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="22"/>
@@ -3248,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>19</v>
@@ -3257,25 +3759,35 @@
         <v>21</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="14"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="22"/>
@@ -3284,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>19</v>
@@ -3297,23 +3809,31 @@
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
-      <c r="L62" s="10" t="s">
-        <v>87</v>
+      <c r="L62" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P62" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="22"/>
@@ -3322,7 +3842,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>19</v>
@@ -3335,21 +3855,29 @@
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="10" t="s">
-        <v>87</v>
+      <c r="L63" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="14"/>
+      <c r="U63" s="14"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="11"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="22"/>
@@ -3358,7 +3886,7 @@
         <v>19</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>19</v>
@@ -3375,19 +3903,27 @@
         <v>64</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+      <c r="T64" s="14"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="36"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="22"/>
@@ -3396,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>19</v>
@@ -3409,23 +3945,31 @@
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
-      <c r="L65" s="10" t="s">
-        <v>64</v>
+      <c r="L65" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O65" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P65" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="P65" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="36"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="22"/>
@@ -3434,7 +3978,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>19</v>
@@ -3443,25 +3987,35 @@
         <v>21</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
-      <c r="L66" s="10" t="s">
-        <v>93</v>
+      <c r="L66" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O66" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="36"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="22"/>
@@ -3470,7 +4024,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>19</v>
@@ -3479,27 +4033,35 @@
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="1" t="s">
-        <v>101</v>
+      <c r="L67" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="36"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="22"/>
@@ -3508,7 +4070,7 @@
         <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>19</v>
@@ -3517,27 +4079,35 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="21" t="s">
-        <v>47</v>
+      <c r="L68" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="36"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="22"/>
@@ -3546,7 +4116,7 @@
         <v>19</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>19</v>
@@ -3559,23 +4129,31 @@
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
-      <c r="L69" s="10" t="s">
-        <v>91</v>
+      <c r="L69" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="36"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="22"/>
@@ -3584,7 +4162,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>19</v>
@@ -3595,25 +4173,32 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="25" t="s">
         <v>64</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P70" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="36"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="22"/>
@@ -3622,7 +4207,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>19</v>
@@ -3639,19 +4224,27 @@
         <v>64</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="11"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="22"/>
@@ -3660,7 +4253,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>19</v>
@@ -3673,399 +4266,440 @@
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="1" t="s">
-        <v>101</v>
+      <c r="L72" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="36"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="C73" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="E73" s="5" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="21" t="s">
-        <v>47</v>
+        <v>95</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="O73" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M74" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O74" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P74" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O75" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P75" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O77" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="P77" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O78" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P78" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O79" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P79" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O80" s="11"/>
-      <c r="P80" s="15"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N81" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O81" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P81" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="M82" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="M83" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N83" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="M84" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
+      <c r="P73" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="V73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="W73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X73" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="44"/>
+    </row>
+    <row r="75" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="44"/>
+    </row>
+    <row r="76" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="44"/>
+    </row>
+    <row r="77" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="43"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="34"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+    </row>
+    <row r="78" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="44"/>
+    </row>
+    <row r="79" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+    </row>
+    <row r="80" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+    </row>
+    <row r="81" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="47"/>
+    </row>
+    <row r="82" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+    </row>
+    <row r="83" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+    </row>
+    <row r="84" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+    </row>
+    <row r="85" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+    </row>
+    <row r="86" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="46" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1"/>
